--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3831.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3831.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.318862341088181</v>
+        <v>2.891649961471558</v>
       </c>
       <c r="B1">
-        <v>2.044828618921497</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.479022187814599</v>
+        <v>2.942132234573364</v>
       </c>
       <c r="D1">
-        <v>4.016072637342058</v>
+        <v>2.909365653991699</v>
       </c>
       <c r="E1">
-        <v>1.063936968455548</v>
+        <v>2.460869073867798</v>
       </c>
     </row>
   </sheetData>
